--- a/data/Subset1_WithDialogActs/Fraction as Number 3_Grade 4.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Fraction as Number 3_Grade 4.xlsx_with_dialog_acts.xlsx
@@ -893,12 +893,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1501,12 +1501,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -1653,12 +1653,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2489,12 +2489,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2717,12 +2717,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3059,12 +3059,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3325,12 +3325,12 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3515,12 +3515,12 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3743,12 +3743,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4085,12 +4085,12 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
